--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3679.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3679.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.019347990263006</v>
+        <v>5.29586935043335</v>
       </c>
       <c r="B1">
-        <v>1.441212722621164</v>
+        <v>4.155534744262695</v>
       </c>
       <c r="C1">
-        <v>2.645666483437022</v>
+        <v>2.97716212272644</v>
       </c>
       <c r="D1">
-        <v>7.585141213307875</v>
+        <v>2.32318377494812</v>
       </c>
       <c r="E1">
-        <v>1.865061413665689</v>
+        <v>1.564671874046326</v>
       </c>
     </row>
   </sheetData>
